--- a/Config/Datas/Numeric.xlsx
+++ b/Config/Datas/Numeric.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20406"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\OpenProjects\Nova\Config\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\AutoStarRail\Config\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{918E355C-A78D-41E6-8692-D8D10A41D5E7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9278F2D-2CEF-4813-A83F-E8E7130986CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24045" windowHeight="12900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="1800" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
   <si>
     <t>##var</t>
   </si>
@@ -156,6 +156,14 @@
   </si>
   <si>
     <t>攻击力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackRange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击距离</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -230,7 +238,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -240,14 +248,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -524,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -565,13 +570,13 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -630,84 +635,92 @@
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="I8" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="I9" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="I10" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="I11" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="I12" s="3" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Datas/Numeric.xlsx
+++ b/Config/Datas/Numeric.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\AutoStarRail\Config\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9278F2D-2CEF-4813-A83F-E8E7130986CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8454D247-DE03-4E70-B1AB-04F47ED0F497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="1800" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
   <si>
     <t>##var</t>
   </si>
@@ -107,22 +107,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Defence</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CraticalRate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Attack</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CraticalDamage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>生命值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -164,6 +152,33 @@
   </si>
   <si>
     <t>攻击距离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Defense</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackSpeed</t>
+  </si>
+  <si>
+    <t>攻击速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackInterval</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击间隔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CriticalRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CriticalDamage</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -529,10 +544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -648,7 +663,7 @@
         <v>21</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -656,7 +671,7 @@
         <v>22</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -664,7 +679,7 @@
         <v>23</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -672,7 +687,7 @@
         <v>24</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -680,46 +695,63 @@
         <v>25</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H9" s="3" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H10" s="3" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H11" s="3" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H12" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H15" t="s">
         <v>39</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="I15" s="3" t="s">
         <v>40</v>
       </c>
     </row>

--- a/Config/Datas/Numeric.xlsx
+++ b/Config/Datas/Numeric.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\AutoStarRail\Config\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8454D247-DE03-4E70-B1AB-04F47ED0F497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57D2EC05-4D3C-43B8-9F03-00F64DACC48B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="1800" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="83">
   <si>
     <t>##var</t>
   </si>
@@ -87,30 +100,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Hp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HpMax</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MpMax</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Speed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Attack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>生命值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -119,66 +108,203 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>魔力值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔力上限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>防御</t>
+    <t>攻击力</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>暴击率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>暴击伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AttackRange</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击距离</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Defense</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AttackSpeed</t>
-  </si>
-  <si>
-    <t>攻击速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AttackInterval</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击间隔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CriticalRate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CriticalDamage</t>
+  </si>
+  <si>
+    <t>击破特攻</t>
+  </si>
+  <si>
+    <t>治疗量加成</t>
+  </si>
+  <si>
+    <t>能量上限</t>
+  </si>
+  <si>
+    <t>能量恢复效率</t>
+  </si>
+  <si>
+    <t>效果命中</t>
+  </si>
+  <si>
+    <t>效果抵抗</t>
+  </si>
+  <si>
+    <t>BreakEffect</t>
+  </si>
+  <si>
+    <t>OutgoingHealingBoost</t>
+  </si>
+  <si>
+    <t>MaxEnergy</t>
+  </si>
+  <si>
+    <t>EnergyRegenerationRate</t>
+  </si>
+  <si>
+    <t>EffectHitRate</t>
+  </si>
+  <si>
+    <t>EffectRES</t>
+  </si>
+  <si>
+    <t>ATK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CritRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CritDMG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PhysicalDMGBoost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FireDMGBoost</t>
+  </si>
+  <si>
+    <t>IceDMGBoost</t>
+  </si>
+  <si>
+    <t>LightningDMGBoost</t>
+  </si>
+  <si>
+    <t>WindDMGBoost</t>
+  </si>
+  <si>
+    <t>QuantumDMGBoost</t>
+  </si>
+  <si>
+    <t>ImaginaryDMGBoost</t>
+  </si>
+  <si>
+    <t>PhysicalRESBoost</t>
+  </si>
+  <si>
+    <t>FireRESBoost</t>
+  </si>
+  <si>
+    <t>IceRESBoost</t>
+  </si>
+  <si>
+    <t>LightningRESBoost</t>
+  </si>
+  <si>
+    <t>WindRESBoost</t>
+  </si>
+  <si>
+    <t>QuantumRESBoost</t>
+  </si>
+  <si>
+    <t>ImaginaryRESBoost</t>
+  </si>
+  <si>
+    <t>火属性伤害提高</t>
+  </si>
+  <si>
+    <t>冰属性伤害提高</t>
+  </si>
+  <si>
+    <t>雷属性伤害提高</t>
+  </si>
+  <si>
+    <t>风属性伤害提高</t>
+  </si>
+  <si>
+    <t>量子属性伤害提高</t>
+  </si>
+  <si>
+    <t>虚数属性伤害提高</t>
+  </si>
+  <si>
+    <t>物理属性抗性提高</t>
+  </si>
+  <si>
+    <t>火属性抗性提高</t>
+  </si>
+  <si>
+    <t>冰属性抗性提高</t>
+  </si>
+  <si>
+    <t>雷属性抗性提高</t>
+  </si>
+  <si>
+    <t>风属性抗性提高</t>
+  </si>
+  <si>
+    <t>量子属性抗性提高</t>
+  </si>
+  <si>
+    <t>虚数属性抗性提高</t>
+  </si>
+  <si>
+    <t>物理属性伤害提高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Taunt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘲讽值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoveSPD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行动间隔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACTSPD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行动速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACTITV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Energy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能量值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxHP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -186,7 +312,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -208,6 +334,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCE9178"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -253,20 +386,26 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -544,26 +683,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:P34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="20.875" customWidth="1"/>
-    <col min="4" max="5" width="14.125" customWidth="1"/>
-    <col min="6" max="6" width="9.375" customWidth="1"/>
-    <col min="7" max="7" width="5" customWidth="1"/>
-    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.125" customWidth="1"/>
-    <col min="11" max="11" width="15.125" customWidth="1"/>
+    <col min="1" max="1" width="9" style="4"/>
+    <col min="2" max="2" width="19" style="4" customWidth="1"/>
+    <col min="3" max="3" width="20.875" style="4" customWidth="1"/>
+    <col min="4" max="5" width="14.125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="9.375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="5" style="4" customWidth="1"/>
+    <col min="8" max="8" width="23.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="17.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -585,15 +726,15 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -619,14 +760,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="99" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="99" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -649,110 +790,460 @@
       </c>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B4" s="3" t="s">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D4" t="b">
+      <c r="D4" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="I4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="4">
+        <v>1</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="H5" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J5" s="4">
+        <v>2</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H6" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="4">
+        <v>1001</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="5"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H7" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J7" s="4">
+        <v>1003</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J8" s="4">
+        <v>1004</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H9" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" s="4">
+        <v>1005</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H10" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J10" s="4">
+        <v>2001</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H11" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="J11" s="4">
+        <v>2002</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H12" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J12" s="4">
+        <v>2003</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H13" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" s="4">
+        <v>2004</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H14" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14" s="4">
+        <v>2005</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J15" s="4">
+        <v>2006</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H16" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I16" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="3" t="s">
+      <c r="J16" s="4">
+        <v>2007</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="H17" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I17" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="3" t="s">
+      <c r="J17" s="4">
+        <v>2008</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="H18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I18" s="4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I7" s="3" t="s">
+      <c r="J18" s="4">
+        <v>2009</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="H19" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I19" s="4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I8" s="3" t="s">
+      <c r="J19" s="4">
+        <v>2010</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="F20" s="6"/>
+      <c r="H20" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I20" s="4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H9" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H10" s="3" t="s">
+      <c r="J20" s="4">
+        <v>2011</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="F21" s="6"/>
+      <c r="H21" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J21" s="4">
+        <v>3001</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="F22" s="6"/>
+      <c r="H22" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H11" s="3" t="s">
+      <c r="I22" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J22" s="4">
+        <v>3002</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="F23" s="6"/>
+      <c r="H23" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="I11" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H13" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H14" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H15" t="s">
-        <v>39</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>40</v>
+      <c r="I23" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J23" s="4">
+        <v>3003</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="F24" s="6"/>
+      <c r="H24" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J24" s="4">
+        <v>3004</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="F25" s="6"/>
+      <c r="H25" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J25" s="4">
+        <v>3005</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="F26" s="6"/>
+      <c r="H26" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J26" s="4">
+        <v>3006</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="H27" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J27" s="4">
+        <v>3007</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="H28" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J28" s="4">
+        <v>3008</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="H29" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J29" s="4">
+        <v>3009</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="H30" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J30" s="4">
+        <v>3010</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="H31" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J31" s="4">
+        <v>3011</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="H32" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J32" s="4">
+        <v>3012</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="8:11" x14ac:dyDescent="0.2">
+      <c r="H33" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J33" s="4">
+        <v>3013</v>
+      </c>
+      <c r="K33" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="8:11" x14ac:dyDescent="0.2">
+      <c r="H34" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J34" s="4">
+        <v>3014</v>
+      </c>
+      <c r="K34" s="4" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
